--- a/movie_ui/类别对应.xlsx
+++ b/movie_ui/类别对应.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>奇闻</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>http://video.sina.cn/?sa=t175d17v1671&amp;node_id=280682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +493,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -567,7 +571,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>

--- a/movie_ui/类别对应.xlsx
+++ b/movie_ui/类别对应.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sina" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>奇闻</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +121,116 @@
   </si>
   <si>
     <t>新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.pptv.com/75340.html</t>
+  </si>
+  <si>
+    <t>pptv分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-113.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-89.html</t>
+  </si>
+  <si>
+    <t>恶搞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-114.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宅神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-91.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-92.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷囧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-90.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-117.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-74.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.56.com/vlist/id-116.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -624,14 +733,154 @@
         <v>27</v>
       </c>
     </row>
+    <row r="13" spans="1:3" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="C19" r:id="rId4"/>
+    <hyperlink ref="C20" r:id="rId5"/>
+    <hyperlink ref="C21" r:id="rId6"/>
+    <hyperlink ref="C22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="C24" r:id="rId9"/>
+    <hyperlink ref="C25" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -647,18 +896,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>